--- a/SCBAA/2019/Region 12.xlsx
+++ b/SCBAA/2019/Region 12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C167B69-1928-461D-8A25-E9D0157D7B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7549D5BA-B5DD-4219-A8D6-E03555F01C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="1095" windowWidth="14445" windowHeight="12495" firstSheet="1" activeTab="4" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Koronadal" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1646,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1801,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="41">
-        <f>6880078.46+32289764.81</f>
         <v>39169843.269999996</v>
       </c>
       <c r="F13" s="70"/>
@@ -1807,7 +1813,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>208501969.12</v>
       </c>
     </row>
@@ -1828,7 +1833,6 @@
         <v>26</v>
       </c>
       <c r="E16" s="47">
-        <f>24664386.26+2460305+206967</f>
         <v>27331658.260000002</v>
       </c>
     </row>
@@ -1840,7 +1844,6 @@
         <v>27</v>
       </c>
       <c r="E17" s="39">
-        <f>8635524.1+3392702+1857564.85+1027449+2610236+4546735</f>
         <v>22070210.949999999</v>
       </c>
     </row>
@@ -1852,7 +1855,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="48">
-        <f>4026421.36+1142454.01</f>
         <v>5168875.37</v>
       </c>
     </row>
@@ -1864,7 +1866,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>54570744.579999998</v>
       </c>
     </row>
@@ -2055,7 +2056,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1129777295.3199999</v>
       </c>
     </row>
@@ -2519,7 +2519,6 @@
         <v>50</v>
       </c>
       <c r="E82" s="47">
-        <f>130991900.74+12209974.22</f>
         <v>143201874.96000001</v>
       </c>
     </row>
@@ -2633,7 +2632,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>947475129.46000004</v>
       </c>
     </row>
@@ -2800,7 +2798,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="37">
-        <f>136407019.67+26203468.22</f>
         <v>162610487.88999999</v>
       </c>
     </row>
@@ -2809,7 +2806,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>214212036.40999997</v>
       </c>
     </row>
@@ -2821,7 +2817,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1161687165.8699999</v>
       </c>
     </row>
@@ -6412,7 +6407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191BD2DF-E051-4277-93AB-C7AB36FD6A7D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
